--- a/Experiment/181027_WaterTemperature.xlsx
+++ b/Experiment/181027_WaterTemperature.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3E510E-D6E3-4465-9243-C46D066F2EAD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A93E76-E909-4B18-8016-C50226CB509B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$2:$E$25</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$F$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$F$2:$F$25</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,6 +27,35 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>温度[℃]</t>
+    <rPh sb="0" eb="2">
+      <t>オンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間[sec]</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動画の時間</t>
+    <rPh sb="0" eb="2">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -86,6 +120,1231 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15071981627296588"/>
+          <c:y val="0.20106481481481481"/>
+          <c:w val="0.78083573928258965"/>
+          <c:h val="0.57241542723826189"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>温度[℃]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0_);[Red]\(0\)">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0_);[Red]\(0\)">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0_);[Red]\(0\)">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0_);[Red]\(0\)">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0_);[Red]\(0\)">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0_);[Red]\(0\)">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0_);[Red]\(0\)">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0_);[Red]\(0\)">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0_);[Red]\(0\)">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0_);[Red]\(0\)">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0_);[Red]\(0\)">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0_);[Red]\(0\)">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0_);[Red]\(0\)">
+                  <c:v>2400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>77.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>61.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>47.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E565-4153-AD06-90C061B75E30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="372242544"/>
+        <c:axId val="372240248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="372242544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2400"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[sec]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="372240248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="372240248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>温度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>℃</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="372242544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.55411111111111111"/>
+          <c:y val="0.20730278506853311"/>
+          <c:w val="0.17366666666666666"/>
+          <c:h val="7.8125546806649168E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>77787</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AFDC023-50B8-41FD-9A2E-4CD4299B24D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,375 +1610,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1">
-        <v>1.9444444444444445E-2</v>
-      </c>
-      <c r="C1">
+    <row r="1" spans="1:6">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1"/>
+      <c r="C2">
         <v>28</v>
       </c>
-      <c r="D1">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="E1">
+      <c r="F2">
         <v>24.8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="C2">
+    <row r="3" spans="1:6">
+      <c r="C3">
         <v>38</v>
       </c>
-      <c r="D2">
-        <f>C2-$C$1</f>
+      <c r="E3">
+        <f t="shared" ref="E3:E11" si="0">C3-$C$2</f>
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="F3">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="C3">
+    <row r="4" spans="1:6">
+      <c r="C4">
         <v>50</v>
       </c>
-      <c r="D3">
-        <f>C3-$C$1</f>
+      <c r="E4">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="E3">
+      <c r="F4">
         <v>90.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="C4">
+    <row r="5" spans="1:6">
+      <c r="C5">
         <v>58</v>
       </c>
-      <c r="D4">
-        <f>C4-$C$1</f>
+      <c r="E5">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E4">
+      <c r="F5">
         <v>90.1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="C5">
+    <row r="6" spans="1:6">
+      <c r="C6">
         <v>68</v>
       </c>
-      <c r="D5">
-        <f>C5-$C$1</f>
+      <c r="E6">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E5">
+      <c r="F6">
         <v>89.1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="C6">
+    <row r="7" spans="1:6">
+      <c r="C7">
         <v>79</v>
       </c>
-      <c r="D6">
-        <f>C6-$C$1</f>
+      <c r="E7">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="E6">
+      <c r="F7">
         <v>87.7</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="C7">
+    <row r="8" spans="1:6">
+      <c r="C8">
         <v>88</v>
       </c>
-      <c r="D7">
-        <f>C7-$C$1</f>
+      <c r="E8">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E7">
+      <c r="F8">
         <v>86.4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="C8">
+    <row r="9" spans="1:6">
+      <c r="C9">
         <v>98</v>
       </c>
-      <c r="D8">
-        <f>C8-$C$1</f>
+      <c r="E9">
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="E8">
+      <c r="F9">
         <v>85.6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>108</v>
       </c>
-      <c r="D9">
-        <f>C9-$C$1</f>
+      <c r="E10">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="E9">
+      <c r="F10">
         <v>84.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <f>D10/60</f>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <f>E11/60</f>
         <v>2</v>
       </c>
-      <c r="C10" s="3">
-        <f>C7+60</f>
+      <c r="C11" s="3">
+        <f>C8+60</f>
         <v>148</v>
       </c>
-      <c r="D10" s="2">
-        <f>C10-$C$1</f>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E10">
+      <c r="F11">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <f t="shared" ref="A11:A28" si="0">D11/60</f>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <f t="shared" ref="A12:A19" si="1">E12/60</f>
         <v>3</v>
-      </c>
-      <c r="C11" s="3">
-        <f>C10+60</f>
-        <v>208</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" ref="D11:D28" si="1">C11-$C$1</f>
-        <v>180</v>
-      </c>
-      <c r="E11">
-        <v>79.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>4</v>
       </c>
       <c r="C12" s="3">
         <f>C11+60</f>
+        <v>208</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2">
+        <f t="shared" ref="E12:E19" si="2">C12-$C$2</f>
+        <v>180</v>
+      </c>
+      <c r="F12">
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="3">
+        <f>C12+60</f>
         <v>268</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="3"/>
+      <c r="E13" s="2">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="F13">
+        <v>77.099999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
         <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="E12">
-        <v>77.099999999999994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C13" s="3">
-        <f t="shared" ref="C13:C28" si="2">C12+60</f>
+      <c r="C14" s="3">
+        <f t="shared" ref="C14:C19" si="3">C13+60</f>
         <v>328</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="3"/>
+      <c r="E14" s="2">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="F14">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
         <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="E13">
-        <v>75.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="3">
+        <f t="shared" si="3"/>
+        <v>388</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2">
         <f t="shared" si="2"/>
-        <v>388</v>
-      </c>
-      <c r="D14" s="2">
+        <v>360</v>
+      </c>
+      <c r="F15">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
         <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="E14">
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C16" s="3">
+        <f t="shared" si="3"/>
+        <v>448</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2">
         <f t="shared" si="2"/>
-        <v>448</v>
-      </c>
-      <c r="D15" s="2">
+        <v>420</v>
+      </c>
+      <c r="F16">
+        <v>71.900000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
         <f t="shared" si="1"/>
-        <v>420</v>
-      </c>
-      <c r="E15">
-        <v>71.900000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="3">
+        <f t="shared" si="3"/>
+        <v>508</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2">
         <f t="shared" si="2"/>
-        <v>508</v>
-      </c>
-      <c r="D16" s="2">
+        <v>480</v>
+      </c>
+      <c r="F17">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
         <f t="shared" si="1"/>
-        <v>480</v>
-      </c>
-      <c r="E16">
-        <v>70.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="3">
+        <f t="shared" si="3"/>
+        <v>568</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2">
         <f t="shared" si="2"/>
-        <v>568</v>
-      </c>
-      <c r="D17" s="2">
+        <v>540</v>
+      </c>
+      <c r="F18">
+        <v>69.099999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
         <f t="shared" si="1"/>
-        <v>540</v>
-      </c>
-      <c r="E17">
-        <v>69.099999999999994</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="3">
+        <f t="shared" si="3"/>
+        <v>628</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2">
         <f t="shared" si="2"/>
-        <v>628</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="E18">
+      <c r="F19">
         <v>67.8</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
+    <row r="20" spans="1:6">
+      <c r="A20">
         <v>15</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>928</v>
       </c>
-      <c r="D19">
+      <c r="E20">
         <v>900</v>
       </c>
-      <c r="E19">
+      <c r="F20">
         <v>61.8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
+    <row r="21" spans="1:6">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>1228</v>
       </c>
-      <c r="D20">
+      <c r="E21">
         <v>1200</v>
       </c>
-      <c r="E20">
+      <c r="F21">
         <v>57.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
+    <row r="22" spans="1:6">
+      <c r="A22">
         <v>25</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2">
         <v>1500</v>
       </c>
-      <c r="E21">
+      <c r="F22">
         <v>53.8</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
+    <row r="23" spans="1:6">
+      <c r="A23">
         <v>30</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2">
         <v>1800</v>
       </c>
-      <c r="E22">
+      <c r="F23">
         <v>50.6</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
+    <row r="24" spans="1:6">
+      <c r="A24">
         <v>35</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2">
         <v>2100</v>
       </c>
-      <c r="E23">
+      <c r="F24">
         <v>47.7</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
+    <row r="25" spans="1:6">
+      <c r="A25">
         <v>40</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="2">
         <v>2400</v>
       </c>
-      <c r="E24">
+      <c r="F25">
         <v>45.3</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="D26" s="3"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="C27" s="3"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="D27" s="3"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="C28" s="3"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>